--- a/second_pass/welfare_results/3282_WR/analysis_results/cor_and_elas_3282_wr.xlsx
+++ b/second_pass/welfare_results/3282_WR/analysis_results/cor_and_elas_3282_wr.xlsx
@@ -464,25 +464,25 @@
         <v>0.978445703173817</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.987558035643568</v>
+        <v>-0.994077062095491</v>
       </c>
       <c r="D2" t="n">
         <v>-0.978445703173817</v>
       </c>
       <c r="E2" t="n">
-        <v>0.987558035643568</v>
+        <v>0.994077062095491</v>
       </c>
       <c r="F2" t="n">
         <v>72.8753918662978</v>
       </c>
       <c r="G2" t="n">
-        <v>-5.60626951083395</v>
+        <v>-4.17890087437411</v>
       </c>
       <c r="H2" t="n">
         <v>-311.078057747094</v>
       </c>
       <c r="I2" t="n">
-        <v>1.31336517422344</v>
+        <v>0.978979491501192</v>
       </c>
     </row>
     <row r="3">
@@ -493,25 +493,25 @@
         <v>0.858108647676435</v>
       </c>
       <c r="C3" t="n">
-        <v>0.888630953222201</v>
+        <v>0.89608392222896</v>
       </c>
       <c r="D3" t="n">
         <v>0.858108647676435</v>
       </c>
       <c r="E3" t="n">
-        <v>0.888630953222201</v>
+        <v>0.89608392222896</v>
       </c>
       <c r="F3" t="n">
         <v>0.00254435523045804</v>
       </c>
       <c r="G3" t="n">
-        <v>0.000682792476675063</v>
+        <v>0.000645942293036667</v>
       </c>
       <c r="H3" t="n">
         <v>0.0341554246136687</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0000508635635187025</v>
+        <v>0.0000481184664061879</v>
       </c>
     </row>
     <row r="4">
@@ -522,25 +522,25 @@
         <v>0.96140458865591</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.973185537898034</v>
+        <v>-0.980265790894893</v>
       </c>
       <c r="D4" t="n">
         <v>-0.961404588655909</v>
       </c>
       <c r="E4" t="n">
-        <v>0.973185537898033</v>
+        <v>0.980265790894893</v>
       </c>
       <c r="F4" t="n">
         <v>165.930306433566</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.66880252930793</v>
+        <v>-9.13689504632759</v>
       </c>
       <c r="H4" t="n">
         <v>-494.804173784894</v>
       </c>
       <c r="I4" t="n">
-        <v>3.24238850748086</v>
+        <v>3.06401577676982</v>
       </c>
     </row>
     <row r="5">
@@ -551,25 +551,25 @@
         <v>0.996754735111256</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.954647417721129</v>
+        <v>-0.950875059692682</v>
       </c>
       <c r="D5" t="n">
         <v>-0.996754735111256</v>
       </c>
       <c r="E5" t="n">
-        <v>0.954647417721129</v>
+        <v>0.950875059692682</v>
       </c>
       <c r="F5" t="n">
         <v>0.0248261849493195</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.00654674527897722</v>
+        <v>-0.00611763614733641</v>
       </c>
       <c r="H5" t="n">
         <v>-0.354095875932144</v>
       </c>
       <c r="I5" t="n">
-        <v>0.000459001982680868</v>
+        <v>0.00042891650756057</v>
       </c>
     </row>
     <row r="6">
@@ -580,25 +580,25 @@
         <v>0.931693181546322</v>
       </c>
       <c r="C6" t="n">
-        <v>0.974239456953092</v>
+        <v>0.98968421653673</v>
       </c>
       <c r="D6" t="n">
         <v>0.931693181546321</v>
       </c>
       <c r="E6" t="n">
-        <v>0.974239456953092</v>
+        <v>0.98968421653673</v>
       </c>
       <c r="F6" t="n">
         <v>0.0047001261183794</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00127360317423214</v>
+        <v>0.00121378791064139</v>
       </c>
       <c r="H6" t="n">
         <v>0.063094493013125</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0000948750874725967</v>
+        <v>0.0000904192424494479</v>
       </c>
     </row>
     <row r="7">
@@ -609,25 +609,25 @@
         <v>0.972436504654332</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.935343043275875</v>
+        <v>-0.919767730039377</v>
       </c>
       <c r="D7" t="n">
         <v>-0.972436504654332</v>
       </c>
       <c r="E7" t="n">
-        <v>0.935343043275875</v>
+        <v>0.919767730039378</v>
       </c>
       <c r="F7" t="n">
         <v>0.101424722848992</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.020224384219008</v>
+        <v>-0.0186577942862876</v>
       </c>
       <c r="H7" t="n">
         <v>-1.0892203836199</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00188323005615018</v>
+        <v>0.00173735420574043</v>
       </c>
     </row>
     <row r="8">
@@ -638,25 +638,25 @@
         <v>0.984612346027066</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.980351238469888</v>
+        <v>-0.990142366382915</v>
       </c>
       <c r="D8" t="n">
         <v>-0.984612346027066</v>
       </c>
       <c r="E8" t="n">
-        <v>0.980351238469888</v>
+        <v>0.990142366382915</v>
       </c>
       <c r="F8" t="n">
         <v>4.59132957024497</v>
       </c>
       <c r="G8" t="n">
-        <v>-1.60661845538709</v>
+        <v>-1.52232170117355</v>
       </c>
       <c r="H8" t="n">
         <v>-83.5884835402481</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0882479799836088</v>
+        <v>0.0836177466798794</v>
       </c>
     </row>
     <row r="9">
@@ -667,25 +667,25 @@
         <v>0.978004616666025</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.933203908915332</v>
+        <v>-0.929828793322838</v>
       </c>
       <c r="D9" t="n">
         <v>-0.978004616666024</v>
       </c>
       <c r="E9" t="n">
-        <v>0.933203908915331</v>
+        <v>0.929828793322838</v>
       </c>
       <c r="F9" t="n">
         <v>0.239485008692609</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.082221702600176</v>
+        <v>-0.0768582783958761</v>
       </c>
       <c r="H9" t="n">
         <v>-4.46376107702154</v>
       </c>
       <c r="I9" t="n">
-        <v>0.00441127220345383</v>
+        <v>0.00412351941605644</v>
       </c>
     </row>
     <row r="10">
@@ -696,25 +696,25 @@
         <v>0.968609140697871</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.92753558395401</v>
+        <v>-0.933733738011727</v>
       </c>
       <c r="D10" t="n">
         <v>-0.968609140697871</v>
       </c>
       <c r="E10" t="n">
-        <v>0.92753558395401</v>
+        <v>0.933733738011727</v>
       </c>
       <c r="F10" t="n">
         <v>0.083269198054012</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0286905509070905</v>
+        <v>-0.0270962445989129</v>
       </c>
       <c r="H10" t="n">
         <v>-1.55205458252873</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00153927522437311</v>
+        <v>0.00145373918122823</v>
       </c>
     </row>
     <row r="11">
@@ -725,25 +725,25 @@
         <v>0.988210637213618</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.97810983831246</v>
+        <v>-0.983574866981753</v>
       </c>
       <c r="D11" t="n">
         <v>-0.988210637213618</v>
       </c>
       <c r="E11" t="n">
-        <v>0.978109838312461</v>
+        <v>0.983574866981754</v>
       </c>
       <c r="F11" t="n">
         <v>0.161020683871765</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0258125916432873</v>
+        <v>-0.0243516925310269</v>
       </c>
       <c r="H11" t="n">
         <v>-1.35096353768411</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00307659018394366</v>
+        <v>0.00290246633266113</v>
       </c>
     </row>
     <row r="12">
@@ -754,25 +754,25 @@
         <v>-0.786597091305082</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.819658584301411</v>
+        <v>-0.851113096086536</v>
       </c>
       <c r="D12" t="n">
         <v>-0.786597091305082</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.819658584301411</v>
+        <v>-0.851113096086536</v>
       </c>
       <c r="F12" t="n">
         <v>-0.00118517820060885</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.000320034010625808</v>
+        <v>-0.000311765576313157</v>
       </c>
       <c r="H12" t="n">
         <v>-0.0159098321649731</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.0000238404358332694</v>
+        <v>-0.0000232244916800623</v>
       </c>
     </row>
     <row r="13">
@@ -783,25 +783,25 @@
         <v>-0.521724823762677</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.639174271274901</v>
+        <v>-0.705204570941993</v>
       </c>
       <c r="D13" t="n">
         <v>-0.521724823762677</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.639174271274901</v>
+        <v>-0.705204570941993</v>
       </c>
       <c r="F13" t="n">
         <v>-0.00074978083446401</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.000238036712035501</v>
+        <v>-0.000246386847975701</v>
       </c>
       <c r="H13" t="n">
         <v>-0.0100650579218449</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.0000177321746152787</v>
+        <v>-0.0000183542050041493</v>
       </c>
     </row>
     <row r="14">
@@ -812,25 +812,25 @@
         <v>-0.793891673248891</v>
       </c>
       <c r="C14" t="n">
-        <v>0.717215894109392</v>
+        <v>0.754980557784383</v>
       </c>
       <c r="D14" t="n">
         <v>0.793891673248891</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.717215894109392</v>
+        <v>-0.754980557784383</v>
       </c>
       <c r="F14" t="n">
         <v>-0.00950693336296232</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0021428018865853</v>
+        <v>0.00199160516823554</v>
       </c>
       <c r="H14" t="n">
         <v>0.177199730952255</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.000114963350318435</v>
+        <v>-0.000106851503204868</v>
       </c>
     </row>
     <row r="15">
@@ -841,25 +841,25 @@
         <v>0.757082729769264</v>
       </c>
       <c r="C15" t="n">
-        <v>0.811691205735754</v>
+        <v>0.863774954038932</v>
       </c>
       <c r="D15" t="n">
         <v>0.757082729769264</v>
       </c>
       <c r="E15" t="n">
-        <v>0.811691205735754</v>
+        <v>0.863774954038932</v>
       </c>
       <c r="F15" t="n">
         <v>0.00059980474591938</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000166643824000187</v>
+        <v>0.00016637065812529</v>
       </c>
       <c r="H15" t="n">
         <v>0.00805177890922176</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0000124138724672368</v>
+        <v>0.0000123935234002749</v>
       </c>
     </row>
     <row r="16">
@@ -870,25 +870,25 @@
         <v>-0.557459045373724</v>
       </c>
       <c r="C16" t="n">
-        <v>0.519369043266282</v>
+        <v>0.535998615636706</v>
       </c>
       <c r="D16" t="n">
         <v>0.557459045373724</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.519369043266282</v>
+        <v>-0.535998615636706</v>
       </c>
       <c r="F16" t="n">
         <v>-0.000799226509082303</v>
       </c>
       <c r="G16" t="n">
-        <v>0.000412136275533722</v>
+        <v>0.000399030594433079</v>
       </c>
       <c r="H16" t="n">
         <v>0.0229154224684078</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0000143741725562822</v>
+        <v>-0.0000139170826741448</v>
       </c>
     </row>
     <row r="17">
@@ -899,25 +899,25 @@
         <v>0.594635188154063</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.420824052150526</v>
+        <v>-0.402628083495524</v>
       </c>
       <c r="D17" t="n">
         <v>-0.594635188154063</v>
       </c>
       <c r="E17" t="n">
-        <v>0.420824052150527</v>
+        <v>0.402628083495524</v>
       </c>
       <c r="F17" t="n">
         <v>0.0268204257469662</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.00860766761823998</v>
+        <v>-0.00772621418993106</v>
       </c>
       <c r="H17" t="n">
         <v>-0.630065441647731</v>
       </c>
       <c r="I17" t="n">
-        <v>0.000366408463231738</v>
+        <v>0.000328887033455264</v>
       </c>
     </row>
     <row r="18">
@@ -928,25 +928,25 @@
         <v>0.713533236149945</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.777854020568153</v>
+        <v>-0.769410302531576</v>
       </c>
       <c r="D18" t="n">
         <v>-0.713533236149945</v>
       </c>
       <c r="E18" t="n">
-        <v>0.777854020568153</v>
+        <v>0.769410302531577</v>
       </c>
       <c r="F18" t="n">
         <v>0.0372685163729708</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.00658018098735643</v>
+        <v>-0.00610626264893488</v>
       </c>
       <c r="H18" t="n">
         <v>-0.312682852369225</v>
       </c>
       <c r="I18" t="n">
-        <v>0.000784288556299933</v>
+        <v>0.000727802461136458</v>
       </c>
     </row>
     <row r="19">
@@ -957,25 +957,25 @@
         <v>0.913986017281333</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.826861967396228</v>
+        <v>-0.797062118150063</v>
       </c>
       <c r="D19" t="n">
         <v>-0.913986017281333</v>
       </c>
       <c r="E19" t="n">
-        <v>0.826861967396228</v>
+        <v>0.797062118150063</v>
       </c>
       <c r="F19" t="n">
         <v>0.0995872123477592</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0498660431894754</v>
+        <v>-0.0450963930037438</v>
       </c>
       <c r="H19" t="n">
         <v>-2.85536455243495</v>
       </c>
       <c r="I19" t="n">
-        <v>0.00173918956436507</v>
+        <v>0.00157283736759709</v>
       </c>
     </row>
     <row r="20">
@@ -986,25 +986,25 @@
         <v>0.265268303719946</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.15104972369199</v>
+        <v>-0.122653889313527</v>
       </c>
       <c r="D20" t="n">
         <v>-0.265268303719946</v>
       </c>
       <c r="E20" t="n">
-        <v>0.15104972369199</v>
+        <v>0.122653889313527</v>
       </c>
       <c r="F20" t="n">
         <v>0.0109015410894385</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00223354630048646</v>
+        <v>-0.00170150838560932</v>
       </c>
       <c r="H20" t="n">
         <v>-0.203193824366044</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000119831874053676</v>
+        <v>0.0000912875361129525</v>
       </c>
     </row>
   </sheetData>
